--- a/NhryService/src/main/webapp/report/template/NewDeliverMilkTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/NewDeliverMilkTemplate.xlsx
@@ -1,77 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspaces\vbox\nhry-front-pl\NhryService\src\main\webapp\report\template\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="465" windowWidth="27795" windowHeight="17535"/>
+    <workbookView windowWidth="18468" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
+  <si>
+    <t>配送路单</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>回瓶总数：大口瓶（         ），中口瓶（         ）</t>
+  </si>
   <si>
     <t>订户地址</t>
   </si>
   <si>
-    <t>订户姓名</t>
-  </si>
-  <si>
     <t>今日配送</t>
-    <rPh sb="2" eb="3">
-      <t>pei'song</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回瓶总数：大口瓶（         ），中口瓶（         ）</t>
-    <rPh sb="0" eb="1">
-      <t>hui'ping</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>zong'shu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>da'ping</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ko</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ping</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>zhong'kou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新希望乳业配送路单</t>
   </si>
   <si>
     <t>订户电话</t>
+  </si>
+  <si>
+    <t>订户姓名</t>
   </si>
   <si>
     <t>金额</t>
@@ -89,63 +52,370 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="2"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="11"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -155,61 +425,33 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="hair">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
       </left>
       <right style="hair">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
@@ -217,22 +459,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -241,30 +474,297 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -275,53 +775,93 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="47">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="注释" xfId="11" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="12" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="13" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="标题" xfId="15" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="17" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="18" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="19" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="20" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="21" builtinId="44"/>
+    <cellStyle name="输出" xfId="22" builtinId="21"/>
+    <cellStyle name="计算" xfId="23" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="25" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="26" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="27" builtinId="24"/>
+    <cellStyle name="汇总" xfId="28" builtinId="25"/>
+    <cellStyle name="好" xfId="29" builtinId="26"/>
+    <cellStyle name="适中" xfId="30" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="31" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="32" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="33" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="34" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="37" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="38" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="39" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="40" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="42" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="43" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="44" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="45" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="46" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -370,7 +910,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -405,7 +945,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -579,144 +1119,139 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A2:M8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="1.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.8796296296296" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1296296296296" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.3796296296296" style="1" customWidth="1"/>
     <col min="6" max="6" width="7" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1296296296296" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3796296296296" style="1" customWidth="1"/>
     <col min="9" max="9" width="29" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="10" max="16384" width="8.87962962962963" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5">
-      <c r="B2" s="4" t="s">
+    <row r="2" ht="20.4" spans="2:9">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="10"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="2:13">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="10"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="B4" s="7"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="B5" s="7"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="8"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="7"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="8"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="8" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B4:I4"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B6:I6"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="B4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>